--- a/TODO.xlsx
+++ b/TODO.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Prio</t>
   </si>
@@ -28,6 +28,30 @@
   </si>
   <si>
     <t>GridSearchXlgb:  adapt to single scorer shape of scikit</t>
+  </si>
+  <si>
+    <t>scale_predictions:  test commented version</t>
+  </si>
+  <si>
+    <t>ScalingEstimator: change to direkt XGBClass/Regr child</t>
+  </si>
+  <si>
+    <t>partial_dependence: add code scikit pdp usage</t>
+  </si>
+  <si>
+    <t>variable_importance:. Add code for scikit defautl usage</t>
+  </si>
+  <si>
+    <t>plot partial dep</t>
+  </si>
+  <si>
+    <t>plot shapley</t>
+  </si>
+  <si>
+    <t>model_comparison: use only df_tune as name</t>
+  </si>
+  <si>
+    <t>model_comparison: test glmnet</t>
   </si>
 </sst>
 </file>
@@ -373,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -398,6 +422,46 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/TODO.xlsx
+++ b/TODO.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F607DD-A413-4FA6-9844-AE099128794D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="2472" yWindow="2052" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Prio</t>
   </si>
@@ -52,14 +53,28 @@
   </si>
   <si>
     <t>model_comparison: test glmnet</t>
+  </si>
+  <si>
+    <t>move shap_agg to my_utils</t>
+  </si>
+  <si>
+    <t>shap agg multiclass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -93,9 +108,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -106,14 +123,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -151,9 +171,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -186,9 +206,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -221,9 +258,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -396,8 +450,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
@@ -425,22 +479,22 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -455,22 +509,33 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -482,7 +547,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/TODO.xlsx
+++ b/TODO.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F607DD-A413-4FA6-9844-AE099128794D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84260A0B-254C-434B-B2D4-3C44A9D1B06F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2472" yWindow="2052" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -108,11 +108,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -454,7 +453,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -524,7 +523,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
     </row>

--- a/TODO.xlsx
+++ b/TODO.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84260A0B-254C-434B-B2D4-3C44A9D1B06F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -17,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Prio</t>
   </si>
@@ -59,12 +58,18 @@
   </si>
   <si>
     <t>shap agg multiclass</t>
+  </si>
+  <si>
+    <t>target_encoding</t>
+  </si>
+  <si>
+    <t>embedding</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -108,10 +113,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -130,9 +136,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -170,9 +176,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -205,26 +211,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -257,26 +246,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -449,11 +421,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -527,6 +499,27 @@
         <v>13</v>
       </c>
     </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="20" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="21" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="23" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="24" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="25" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -534,7 +527,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -546,7 +539,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/TODO.xlsx
+++ b/TODO.xlsx
@@ -425,7 +425,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -445,7 +445,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -500,7 +500,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/TODO.xlsx
+++ b/TODO.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Prio</t>
   </si>
@@ -45,9 +45,6 @@
     <t>plot partial dep</t>
   </si>
   <si>
-    <t>plot shapley</t>
-  </si>
-  <si>
     <t>model_comparison: use only df_tune as name</t>
   </si>
   <si>
@@ -64,6 +61,12 @@
   </si>
   <si>
     <t>embedding</t>
+  </si>
+  <si>
+    <t>shap2PD</t>
+  </si>
+  <si>
+    <t>plot shapley multiclass</t>
   </si>
 </sst>
 </file>
@@ -425,7 +428,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -476,40 +479,44 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="17" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="18" s="3" customFormat="1" x14ac:dyDescent="0.3"/>

--- a/TODO.xlsx
+++ b/TODO.xlsx
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C293"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -513,20 +513,824 @@
       </c>
     </row>
     <row r="15" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="20" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="21" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="23" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="24" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="25" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" s="3"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="3"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="3"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" s="3"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" s="3"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" s="3"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41" s="3"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B42" s="3"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B43" s="3"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44" s="3"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B45" s="3"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B46" s="3"/>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B47" s="3"/>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B48" s="3"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" s="3"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B50" s="3"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B51" s="3"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52" s="3"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53" s="3"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B54" s="3"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B55" s="3"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B56" s="3"/>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B57" s="3"/>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B58" s="3"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B59" s="3"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B60" s="3"/>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B61" s="3"/>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B62" s="3"/>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B63" s="3"/>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B64" s="3"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B65" s="3"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B66" s="3"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B67" s="3"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B68" s="3"/>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B69" s="3"/>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B70" s="3"/>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B71" s="3"/>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B72" s="3"/>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B73" s="3"/>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B74" s="3"/>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B75" s="3"/>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B76" s="3"/>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B77" s="3"/>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B78" s="3"/>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B79" s="3"/>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B80" s="3"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B81" s="3"/>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B82" s="3"/>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B83" s="3"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B84" s="3"/>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B85" s="3"/>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B86" s="3"/>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B87" s="3"/>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B88" s="3"/>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B89" s="3"/>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B90" s="3"/>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B91" s="3"/>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B92" s="3"/>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B93" s="3"/>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B94" s="3"/>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B95" s="3"/>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B96" s="3"/>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B97" s="3"/>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B98" s="3"/>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B99" s="3"/>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B100" s="3"/>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B101" s="3"/>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B102" s="3"/>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B103" s="3"/>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B104" s="3"/>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B105" s="3"/>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B106" s="3"/>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B107" s="3"/>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B108" s="3"/>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B109" s="3"/>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B110" s="3"/>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B111" s="3"/>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B112" s="3"/>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B113" s="3"/>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B114" s="3"/>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B115" s="3"/>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B116" s="3"/>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B117" s="3"/>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B118" s="3"/>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B119" s="3"/>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B120" s="3"/>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B121" s="3"/>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B122" s="3"/>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B123" s="3"/>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B124" s="3"/>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B125" s="3"/>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B126" s="3"/>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B127" s="3"/>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B128" s="3"/>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B129" s="3"/>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B130" s="3"/>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B131" s="3"/>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B132" s="3"/>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B133" s="3"/>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B134" s="3"/>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B135" s="3"/>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B136" s="3"/>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B137" s="3"/>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B138" s="3"/>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B139" s="3"/>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B140" s="3"/>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B141" s="3"/>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B142" s="3"/>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B143" s="3"/>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B144" s="3"/>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B145" s="3"/>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B146" s="3"/>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B147" s="3"/>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B148" s="3"/>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B149" s="3"/>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B150" s="3"/>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B151" s="3"/>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B152" s="3"/>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B153" s="3"/>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B154" s="3"/>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B155" s="3"/>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B156" s="3"/>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B157" s="3"/>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B158" s="3"/>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B159" s="3"/>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B160" s="3"/>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B161" s="3"/>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B162" s="3"/>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B163" s="3"/>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B164" s="3"/>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B165" s="3"/>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B166" s="3"/>
+    </row>
+    <row r="167" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B167" s="3"/>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B168" s="3"/>
+    </row>
+    <row r="169" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B169" s="3"/>
+    </row>
+    <row r="170" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B170" s="3"/>
+    </row>
+    <row r="171" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B171" s="3"/>
+    </row>
+    <row r="172" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B172" s="3"/>
+    </row>
+    <row r="173" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B173" s="3"/>
+    </row>
+    <row r="174" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B174" s="3"/>
+    </row>
+    <row r="175" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B175" s="3"/>
+    </row>
+    <row r="176" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B176" s="3"/>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B177" s="3"/>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B178" s="3"/>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B179" s="3"/>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B180" s="3"/>
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B181" s="3"/>
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B182" s="3"/>
+    </row>
+    <row r="183" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B183" s="3"/>
+    </row>
+    <row r="184" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B184" s="3"/>
+    </row>
+    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B185" s="3"/>
+    </row>
+    <row r="186" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B186" s="3"/>
+    </row>
+    <row r="187" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B187" s="3"/>
+    </row>
+    <row r="188" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B188" s="3"/>
+    </row>
+    <row r="189" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B189" s="3"/>
+    </row>
+    <row r="190" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B190" s="3"/>
+    </row>
+    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B191" s="3"/>
+    </row>
+    <row r="192" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B192" s="3"/>
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B193" s="3"/>
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B194" s="3"/>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B195" s="3"/>
+    </row>
+    <row r="196" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B196" s="3"/>
+    </row>
+    <row r="197" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B197" s="3"/>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B198" s="3"/>
+    </row>
+    <row r="199" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B199" s="3"/>
+    </row>
+    <row r="200" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B200" s="3"/>
+    </row>
+    <row r="201" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B201" s="3"/>
+    </row>
+    <row r="202" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B202" s="3"/>
+    </row>
+    <row r="203" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B203" s="3"/>
+    </row>
+    <row r="204" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B204" s="3"/>
+    </row>
+    <row r="205" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B205" s="3"/>
+    </row>
+    <row r="206" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B206" s="3"/>
+    </row>
+    <row r="207" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B207" s="3"/>
+    </row>
+    <row r="208" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B208" s="3"/>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B209" s="3"/>
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B210" s="3"/>
+    </row>
+    <row r="211" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B211" s="3"/>
+    </row>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B212" s="3"/>
+    </row>
+    <row r="213" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B213" s="3"/>
+    </row>
+    <row r="214" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B214" s="3"/>
+    </row>
+    <row r="215" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B215" s="3"/>
+    </row>
+    <row r="216" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B216" s="3"/>
+    </row>
+    <row r="217" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B217" s="3"/>
+    </row>
+    <row r="218" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B218" s="3"/>
+    </row>
+    <row r="219" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B219" s="3"/>
+    </row>
+    <row r="220" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B220" s="3"/>
+    </row>
+    <row r="221" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B221" s="3"/>
+    </row>
+    <row r="222" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B222" s="3"/>
+    </row>
+    <row r="223" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B223" s="3"/>
+    </row>
+    <row r="224" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B224" s="3"/>
+    </row>
+    <row r="225" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B225" s="3"/>
+    </row>
+    <row r="226" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B226" s="3"/>
+    </row>
+    <row r="227" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B227" s="3"/>
+    </row>
+    <row r="228" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B228" s="3"/>
+    </row>
+    <row r="229" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B229" s="3"/>
+    </row>
+    <row r="230" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B230" s="3"/>
+    </row>
+    <row r="231" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B231" s="3"/>
+    </row>
+    <row r="232" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B232" s="3"/>
+    </row>
+    <row r="233" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B233" s="3"/>
+    </row>
+    <row r="234" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B234" s="3"/>
+    </row>
+    <row r="235" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B235" s="3"/>
+    </row>
+    <row r="236" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B236" s="3"/>
+    </row>
+    <row r="237" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B237" s="3"/>
+    </row>
+    <row r="238" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B238" s="3"/>
+    </row>
+    <row r="239" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B239" s="3"/>
+    </row>
+    <row r="240" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B240" s="3"/>
+    </row>
+    <row r="241" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B241" s="3"/>
+    </row>
+    <row r="242" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B242" s="3"/>
+    </row>
+    <row r="243" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B243" s="3"/>
+    </row>
+    <row r="244" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B244" s="3"/>
+    </row>
+    <row r="245" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B245" s="3"/>
+    </row>
+    <row r="246" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B246" s="3"/>
+    </row>
+    <row r="247" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B247" s="3"/>
+    </row>
+    <row r="248" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B248" s="3"/>
+    </row>
+    <row r="249" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B249" s="3"/>
+    </row>
+    <row r="250" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B250" s="3"/>
+    </row>
+    <row r="251" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B251" s="3"/>
+    </row>
+    <row r="252" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B252" s="3"/>
+    </row>
+    <row r="253" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B253" s="3"/>
+    </row>
+    <row r="254" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B254" s="3"/>
+    </row>
+    <row r="255" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B255" s="3"/>
+    </row>
+    <row r="256" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B256" s="3"/>
+    </row>
+    <row r="257" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B257" s="3"/>
+    </row>
+    <row r="258" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B258" s="3"/>
+    </row>
+    <row r="259" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B259" s="3"/>
+    </row>
+    <row r="260" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B260" s="3"/>
+    </row>
+    <row r="261" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B261" s="3"/>
+    </row>
+    <row r="262" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B262" s="3"/>
+    </row>
+    <row r="263" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B263" s="3"/>
+    </row>
+    <row r="264" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B264" s="3"/>
+    </row>
+    <row r="265" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B265" s="3"/>
+    </row>
+    <row r="266" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B266" s="3"/>
+    </row>
+    <row r="267" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B267" s="3"/>
+    </row>
+    <row r="268" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B268" s="3"/>
+    </row>
+    <row r="269" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B269" s="3"/>
+    </row>
+    <row r="270" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B270" s="3"/>
+    </row>
+    <row r="271" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B271" s="3"/>
+    </row>
+    <row r="272" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B272" s="3"/>
+    </row>
+    <row r="273" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B273" s="3"/>
+    </row>
+    <row r="274" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B274" s="3"/>
+    </row>
+    <row r="275" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B275" s="3"/>
+    </row>
+    <row r="276" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B276" s="3"/>
+    </row>
+    <row r="277" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B277" s="3"/>
+    </row>
+    <row r="278" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B278" s="3"/>
+    </row>
+    <row r="279" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B279" s="3"/>
+    </row>
+    <row r="280" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B280" s="3"/>
+    </row>
+    <row r="281" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B281" s="3"/>
+    </row>
+    <row r="282" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B282" s="3"/>
+    </row>
+    <row r="283" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B283" s="3"/>
+    </row>
+    <row r="284" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B284" s="3"/>
+    </row>
+    <row r="285" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B285" s="3"/>
+    </row>
+    <row r="286" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B286" s="3"/>
+    </row>
+    <row r="287" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B287" s="3"/>
+    </row>
+    <row r="288" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B288" s="3"/>
+    </row>
+    <row r="289" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B289" s="3"/>
+    </row>
+    <row r="290" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B290" s="3"/>
+    </row>
+    <row r="291" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B291" s="3"/>
+    </row>
+    <row r="292" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B292" s="3"/>
+    </row>
+    <row r="293" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B293" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TODO.xlsx
+++ b/TODO.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Prio</t>
   </si>
@@ -42,9 +42,6 @@
     <t>variable_importance:. Add code for scikit defautl usage</t>
   </si>
   <si>
-    <t>plot partial dep</t>
-  </si>
-  <si>
     <t>model_comparison: use only df_tune as name</t>
   </si>
   <si>
@@ -63,10 +60,25 @@
     <t>embedding</t>
   </si>
   <si>
-    <t>shap2PD</t>
+    <t>plot partial dep multiclass</t>
+  </si>
+  <si>
+    <t>shap2pd aggregation</t>
   </si>
   <si>
     <t>plot shapley multiclass</t>
+  </si>
+  <si>
+    <t>own spline</t>
+  </si>
+  <si>
+    <t>patialdep plot no multiclass</t>
+  </si>
+  <si>
+    <t>plot my shap (no multiclass)</t>
+  </si>
+  <si>
+    <t>adapt interpret with multiclass selection on "very-high"</t>
   </si>
 </sst>
 </file>
@@ -425,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C293"/>
+  <dimension ref="A1:C292"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -473,43 +485,43 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>8</v>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -518,15 +530,33 @@
       </c>
     </row>
     <row r="16" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="21" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" s="3"/>
+    </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" s="3"/>
     </row>
@@ -1327,9 +1357,6 @@
     </row>
     <row r="292" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B292" s="3"/>
-    </row>
-    <row r="293" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B293" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TODO.xlsx
+++ b/TODO.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Prio</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>adapt interpret with multiclass selection on "very-high"</t>
+  </si>
+  <si>
+    <t>shap plot: show_intercept, show_prediction parameter</t>
   </si>
 </sst>
 </file>
@@ -439,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C292"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -529,25 +532,29 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
     <row r="17" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="3" t="s">
-        <v>17</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="3" t="s">
-        <v>18</v>
+      <c r="B19" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="3" t="s">
-        <v>20</v>
+      <c r="B20" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.3"/>

--- a/TODO.xlsx
+++ b/TODO.xlsx
@@ -63,9 +63,6 @@
     <t>plot partial dep multiclass</t>
   </si>
   <si>
-    <t>shap2pd aggregation</t>
-  </si>
-  <si>
     <t>plot shapley multiclass</t>
   </si>
   <si>
@@ -82,6 +79,9 @@
   </si>
   <si>
     <t>shap plot: show_intercept, show_prediction parameter</t>
+  </si>
+  <si>
+    <t>shap2pd aggregation multiclass</t>
   </si>
 </sst>
 </file>
@@ -442,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -494,7 +494,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -529,32 +529,32 @@
     </row>
     <row r="15" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.3"/>

--- a/TODO.xlsx
+++ b/TODO.xlsx
@@ -66,9 +66,6 @@
     <t>plot shapley multiclass</t>
   </si>
   <si>
-    <t>own spline</t>
-  </si>
-  <si>
     <t>patialdep plot no multiclass</t>
   </si>
   <si>
@@ -82,6 +79,9 @@
   </si>
   <si>
     <t>shap2pd aggregation multiclass</t>
+  </si>
+  <si>
+    <t>own spline example code</t>
   </si>
 </sst>
 </file>
@@ -442,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -463,7 +463,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -529,32 +529,32 @@
     </row>
     <row r="15" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="3" t="s">
-        <v>16</v>
+      <c r="B17" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.3"/>

--- a/TODO.xlsx
+++ b/TODO.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAECFE3-CE89-463B-B4C8-5B09BC2680EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="23256" windowHeight="13176"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Prio</t>
   </si>
@@ -82,12 +83,15 @@
   </si>
   <si>
     <t>own spline example code</t>
+  </si>
+  <si>
+    <t>tabnet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -154,9 +158,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -194,9 +198,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -229,9 +233,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -264,9 +285,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -439,19 +477,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C292"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="58.44140625" customWidth="1"/>
+    <col min="2" max="2" width="58.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,907 +500,913 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="3"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="3"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="3"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="3"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="3"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="3"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="3"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="3"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="3"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="3"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="3"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="3"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="3"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="3"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="3"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="3"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="3"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="3"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="3"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="3"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="3"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="3"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" s="3"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="3"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="3"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" s="3"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" s="3"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="3"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" s="3"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="3"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="3"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="3"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="3"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="3"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="3"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="3"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="3"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="3"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="3"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="3"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="3"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="3"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="3"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="3"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="3"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="3"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" s="3"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" s="3"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" s="3"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" s="3"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="3"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="3"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="3"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" s="3"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" s="3"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" s="3"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" s="3"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" s="3"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B94" s="3"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" s="3"/>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96" s="3"/>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B97" s="3"/>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98" s="3"/>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B99" s="3"/>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100" s="3"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" s="3"/>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B102" s="3"/>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B103" s="3"/>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104" s="3"/>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B105" s="3"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B106" s="3"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B107" s="3"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B108" s="3"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B109" s="3"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B110" s="3"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B111" s="3"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B112" s="3"/>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113" s="3"/>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B114" s="3"/>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B115" s="3"/>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B116" s="3"/>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B117" s="3"/>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B118" s="3"/>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B119" s="3"/>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B120" s="3"/>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B121" s="3"/>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B122" s="3"/>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B123" s="3"/>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B124" s="3"/>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B125" s="3"/>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B126" s="3"/>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B127" s="3"/>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B128" s="3"/>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B129" s="3"/>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B130" s="3"/>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B131" s="3"/>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B132" s="3"/>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B133" s="3"/>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B134" s="3"/>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B135" s="3"/>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B136" s="3"/>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B137" s="3"/>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B138" s="3"/>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B139" s="3"/>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B140" s="3"/>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B141" s="3"/>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B142" s="3"/>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143" s="3"/>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144" s="3"/>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B145" s="3"/>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B146" s="3"/>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" s="3"/>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B148" s="3"/>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B149" s="3"/>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B150" s="3"/>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B151" s="3"/>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B152" s="3"/>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153" s="3"/>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B154" s="3"/>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B155" s="3"/>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B156" s="3"/>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B157" s="3"/>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B158" s="3"/>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B159" s="3"/>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B160" s="3"/>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B161" s="3"/>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B162" s="3"/>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B163" s="3"/>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B164" s="3"/>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B165" s="3"/>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B166" s="3"/>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B167" s="3"/>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B168" s="3"/>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B169" s="3"/>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B170" s="3"/>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B171" s="3"/>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B172" s="3"/>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B173" s="3"/>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B174" s="3"/>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B175" s="3"/>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B176" s="3"/>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B177" s="3"/>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B178" s="3"/>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B179" s="3"/>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B180" s="3"/>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B181" s="3"/>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B182" s="3"/>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B183" s="3"/>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B184" s="3"/>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B185" s="3"/>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B186" s="3"/>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B187" s="3"/>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B188" s="3"/>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B189" s="3"/>
     </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B190" s="3"/>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B191" s="3"/>
     </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B192" s="3"/>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B193" s="3"/>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B194" s="3"/>
     </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B195" s="3"/>
     </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B196" s="3"/>
     </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B197" s="3"/>
     </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B198" s="3"/>
     </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B199" s="3"/>
     </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B200" s="3"/>
     </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B201" s="3"/>
     </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B202" s="3"/>
     </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B203" s="3"/>
     </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B204" s="3"/>
     </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B205" s="3"/>
     </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B206" s="3"/>
     </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B207" s="3"/>
     </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B208" s="3"/>
     </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B209" s="3"/>
     </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B210" s="3"/>
     </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B211" s="3"/>
     </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B212" s="3"/>
     </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B213" s="3"/>
     </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B214" s="3"/>
     </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B215" s="3"/>
     </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B216" s="3"/>
     </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B217" s="3"/>
     </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B218" s="3"/>
     </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B219" s="3"/>
     </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B220" s="3"/>
     </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B221" s="3"/>
     </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B222" s="3"/>
     </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B223" s="3"/>
     </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B224" s="3"/>
     </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B225" s="3"/>
     </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B226" s="3"/>
     </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B227" s="3"/>
     </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B228" s="3"/>
     </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B229" s="3"/>
     </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B230" s="3"/>
     </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B231" s="3"/>
     </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B232" s="3"/>
     </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B233" s="3"/>
     </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B234" s="3"/>
     </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B235" s="3"/>
     </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B236" s="3"/>
     </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B237" s="3"/>
     </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B238" s="3"/>
     </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B239" s="3"/>
     </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B240" s="3"/>
     </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B241" s="3"/>
     </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B242" s="3"/>
     </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B243" s="3"/>
     </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B244" s="3"/>
     </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B245" s="3"/>
     </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B246" s="3"/>
     </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B247" s="3"/>
     </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B248" s="3"/>
     </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B249" s="3"/>
     </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B250" s="3"/>
     </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B251" s="3"/>
     </row>
-    <row r="252" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B252" s="3"/>
     </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B253" s="3"/>
     </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="254" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B254" s="3"/>
     </row>
-    <row r="255" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B255" s="3"/>
     </row>
-    <row r="256" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B256" s="3"/>
     </row>
-    <row r="257" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B257" s="3"/>
     </row>
-    <row r="258" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="258" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B258" s="3"/>
     </row>
-    <row r="259" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="259" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B259" s="3"/>
     </row>
-    <row r="260" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="260" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B260" s="3"/>
     </row>
-    <row r="261" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="261" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B261" s="3"/>
     </row>
-    <row r="262" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B262" s="3"/>
     </row>
-    <row r="263" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="263" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B263" s="3"/>
     </row>
-    <row r="264" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="264" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B264" s="3"/>
     </row>
-    <row r="265" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="265" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B265" s="3"/>
     </row>
-    <row r="266" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="266" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B266" s="3"/>
     </row>
-    <row r="267" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B267" s="3"/>
     </row>
-    <row r="268" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="268" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B268" s="3"/>
     </row>
-    <row r="269" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="269" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B269" s="3"/>
     </row>
-    <row r="270" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="270" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B270" s="3"/>
     </row>
-    <row r="271" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B271" s="3"/>
     </row>
-    <row r="272" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="272" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B272" s="3"/>
     </row>
-    <row r="273" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="273" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B273" s="3"/>
     </row>
-    <row r="274" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="274" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B274" s="3"/>
     </row>
-    <row r="275" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="275" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B275" s="3"/>
     </row>
-    <row r="276" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="276" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B276" s="3"/>
     </row>
-    <row r="277" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="277" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B277" s="3"/>
     </row>
-    <row r="278" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="278" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B278" s="3"/>
     </row>
-    <row r="279" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="279" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B279" s="3"/>
     </row>
-    <row r="280" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="280" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B280" s="3"/>
     </row>
-    <row r="281" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="281" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B281" s="3"/>
     </row>
-    <row r="282" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="282" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B282" s="3"/>
     </row>
-    <row r="283" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="283" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B283" s="3"/>
     </row>
-    <row r="284" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="284" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B284" s="3"/>
     </row>
-    <row r="285" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="285" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B285" s="3"/>
     </row>
-    <row r="286" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="286" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B286" s="3"/>
     </row>
-    <row r="287" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="287" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B287" s="3"/>
     </row>
-    <row r="288" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="288" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B288" s="3"/>
     </row>
-    <row r="289" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="289" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B289" s="3"/>
     </row>
-    <row r="290" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="290" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B290" s="3"/>
     </row>
-    <row r="291" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="291" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B291" s="3"/>
     </row>
-    <row r="292" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="292" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B292" s="3"/>
     </row>
   </sheetData>
@@ -1372,24 +1416,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TODO.xlsx
+++ b/TODO.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAECFE3-CE89-463B-B4C8-5B09BC2680EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9655A1D9-993B-49DC-81ED-05F377FF22C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3375" yWindow="1740" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <t>Prio</t>
   </si>
@@ -86,13 +86,22 @@
   </si>
   <si>
     <t>tabnet</t>
+  </si>
+  <si>
+    <t>not important</t>
+  </si>
+  <si>
+    <t>ceteris-paribus plots</t>
+  </si>
+  <si>
+    <t>done</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,16 +109,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -119,6 +120,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -138,8 +145,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -481,12 +488,13 @@
   <dimension ref="A1:C292"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="58.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -501,913 +509,971 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C15"/>
+    </row>
+    <row r="16" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="3"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="3"/>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="3"/>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="3"/>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="3"/>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="3"/>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="3"/>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" s="3"/>
+      <c r="C21"/>
+    </row>
+    <row r="22" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="2"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="3"/>
+      <c r="B33" s="2"/>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="3"/>
+      <c r="B34" s="2"/>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="3"/>
+      <c r="B35" s="2"/>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="3"/>
+      <c r="B36" s="2"/>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="3"/>
+      <c r="B37" s="2"/>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="3"/>
+      <c r="B38" s="2"/>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="3"/>
+      <c r="B39" s="2"/>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="3"/>
+      <c r="B40" s="2"/>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" s="3"/>
+      <c r="B41" s="2"/>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" s="3"/>
+      <c r="B42" s="2"/>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" s="3"/>
+      <c r="B43" s="2"/>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" s="3"/>
+      <c r="B44" s="2"/>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" s="3"/>
+      <c r="B45" s="2"/>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46" s="3"/>
+      <c r="B46" s="2"/>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47" s="3"/>
+      <c r="B47" s="2"/>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B48" s="3"/>
+      <c r="B48" s="2"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="3"/>
+      <c r="B49" s="2"/>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="3"/>
+      <c r="B50" s="2"/>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="3"/>
+      <c r="B51" s="2"/>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" s="3"/>
+      <c r="B52" s="2"/>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" s="3"/>
+      <c r="B53" s="2"/>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" s="3"/>
+      <c r="B54" s="2"/>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" s="3"/>
+      <c r="B55" s="2"/>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" s="3"/>
+      <c r="B56" s="2"/>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57" s="3"/>
+      <c r="B57" s="2"/>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58" s="3"/>
+      <c r="B58" s="2"/>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59" s="3"/>
+      <c r="B59" s="2"/>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60" s="3"/>
+      <c r="B60" s="2"/>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61" s="3"/>
+      <c r="B61" s="2"/>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62" s="3"/>
+      <c r="B62" s="2"/>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B63" s="3"/>
+      <c r="B63" s="2"/>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B64" s="3"/>
+      <c r="B64" s="2"/>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" s="3"/>
+      <c r="B65" s="2"/>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" s="3"/>
+      <c r="B66" s="2"/>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67" s="3"/>
+      <c r="B67" s="2"/>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68" s="3"/>
+      <c r="B68" s="2"/>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69" s="3"/>
+      <c r="B69" s="2"/>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B70" s="3"/>
+      <c r="B70" s="2"/>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B71" s="3"/>
+      <c r="B71" s="2"/>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B72" s="3"/>
+      <c r="B72" s="2"/>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B73" s="3"/>
+      <c r="B73" s="2"/>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B74" s="3"/>
+      <c r="B74" s="2"/>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B75" s="3"/>
+      <c r="B75" s="2"/>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B76" s="3"/>
+      <c r="B76" s="2"/>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B77" s="3"/>
+      <c r="B77" s="2"/>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B78" s="3"/>
+      <c r="B78" s="2"/>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B79" s="3"/>
+      <c r="B79" s="2"/>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B80" s="3"/>
+      <c r="B80" s="2"/>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81" s="3"/>
+      <c r="B81" s="2"/>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B82" s="3"/>
+      <c r="B82" s="2"/>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" s="3"/>
+      <c r="B83" s="2"/>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" s="3"/>
+      <c r="B84" s="2"/>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" s="3"/>
+      <c r="B85" s="2"/>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B86" s="3"/>
+      <c r="B86" s="2"/>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B87" s="3"/>
+      <c r="B87" s="2"/>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B88" s="3"/>
+      <c r="B88" s="2"/>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B89" s="3"/>
+      <c r="B89" s="2"/>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B90" s="3"/>
+      <c r="B90" s="2"/>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B91" s="3"/>
+      <c r="B91" s="2"/>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B92" s="3"/>
+      <c r="B92" s="2"/>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B93" s="3"/>
+      <c r="B93" s="2"/>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B94" s="3"/>
+      <c r="B94" s="2"/>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B95" s="3"/>
+      <c r="B95" s="2"/>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B96" s="3"/>
+      <c r="B96" s="2"/>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="3"/>
+      <c r="B97" s="2"/>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="3"/>
+      <c r="B98" s="2"/>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="3"/>
+      <c r="B99" s="2"/>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="3"/>
+      <c r="B100" s="2"/>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="3"/>
+      <c r="B101" s="2"/>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="3"/>
+      <c r="B102" s="2"/>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="3"/>
+      <c r="B103" s="2"/>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="3"/>
+      <c r="B104" s="2"/>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="3"/>
+      <c r="B105" s="2"/>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="3"/>
+      <c r="B106" s="2"/>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="3"/>
+      <c r="B107" s="2"/>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B108" s="3"/>
+      <c r="B108" s="2"/>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B109" s="3"/>
+      <c r="B109" s="2"/>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B110" s="3"/>
+      <c r="B110" s="2"/>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B111" s="3"/>
+      <c r="B111" s="2"/>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B112" s="3"/>
+      <c r="B112" s="2"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B113" s="3"/>
+      <c r="B113" s="2"/>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B114" s="3"/>
+      <c r="B114" s="2"/>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B115" s="3"/>
+      <c r="B115" s="2"/>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B116" s="3"/>
+      <c r="B116" s="2"/>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B117" s="3"/>
+      <c r="B117" s="2"/>
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B118" s="3"/>
+      <c r="B118" s="2"/>
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B119" s="3"/>
+      <c r="B119" s="2"/>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B120" s="3"/>
+      <c r="B120" s="2"/>
     </row>
     <row r="121" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B121" s="3"/>
+      <c r="B121" s="2"/>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B122" s="3"/>
+      <c r="B122" s="2"/>
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B123" s="3"/>
+      <c r="B123" s="2"/>
     </row>
     <row r="124" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B124" s="3"/>
+      <c r="B124" s="2"/>
     </row>
     <row r="125" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B125" s="3"/>
+      <c r="B125" s="2"/>
     </row>
     <row r="126" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B126" s="3"/>
+      <c r="B126" s="2"/>
     </row>
     <row r="127" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B127" s="3"/>
+      <c r="B127" s="2"/>
     </row>
     <row r="128" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B128" s="3"/>
+      <c r="B128" s="2"/>
     </row>
     <row r="129" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B129" s="3"/>
+      <c r="B129" s="2"/>
     </row>
     <row r="130" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B130" s="3"/>
+      <c r="B130" s="2"/>
     </row>
     <row r="131" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B131" s="3"/>
+      <c r="B131" s="2"/>
     </row>
     <row r="132" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B132" s="3"/>
+      <c r="B132" s="2"/>
     </row>
     <row r="133" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B133" s="3"/>
+      <c r="B133" s="2"/>
     </row>
     <row r="134" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B134" s="3"/>
+      <c r="B134" s="2"/>
     </row>
     <row r="135" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B135" s="3"/>
+      <c r="B135" s="2"/>
     </row>
     <row r="136" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B136" s="3"/>
+      <c r="B136" s="2"/>
     </row>
     <row r="137" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B137" s="3"/>
+      <c r="B137" s="2"/>
     </row>
     <row r="138" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B138" s="3"/>
+      <c r="B138" s="2"/>
     </row>
     <row r="139" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B139" s="3"/>
+      <c r="B139" s="2"/>
     </row>
     <row r="140" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B140" s="3"/>
+      <c r="B140" s="2"/>
     </row>
     <row r="141" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B141" s="3"/>
+      <c r="B141" s="2"/>
     </row>
     <row r="142" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B142" s="3"/>
+      <c r="B142" s="2"/>
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B143" s="3"/>
+      <c r="B143" s="2"/>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B144" s="3"/>
+      <c r="B144" s="2"/>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B145" s="3"/>
+      <c r="B145" s="2"/>
     </row>
     <row r="146" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B146" s="3"/>
+      <c r="B146" s="2"/>
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B147" s="3"/>
+      <c r="B147" s="2"/>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B148" s="3"/>
+      <c r="B148" s="2"/>
     </row>
     <row r="149" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B149" s="3"/>
+      <c r="B149" s="2"/>
     </row>
     <row r="150" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B150" s="3"/>
+      <c r="B150" s="2"/>
     </row>
     <row r="151" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B151" s="3"/>
+      <c r="B151" s="2"/>
     </row>
     <row r="152" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B152" s="3"/>
+      <c r="B152" s="2"/>
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B153" s="3"/>
+      <c r="B153" s="2"/>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B154" s="3"/>
+      <c r="B154" s="2"/>
     </row>
     <row r="155" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B155" s="3"/>
+      <c r="B155" s="2"/>
     </row>
     <row r="156" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B156" s="3"/>
+      <c r="B156" s="2"/>
     </row>
     <row r="157" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B157" s="3"/>
+      <c r="B157" s="2"/>
     </row>
     <row r="158" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B158" s="3"/>
+      <c r="B158" s="2"/>
     </row>
     <row r="159" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B159" s="3"/>
+      <c r="B159" s="2"/>
     </row>
     <row r="160" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B160" s="3"/>
+      <c r="B160" s="2"/>
     </row>
     <row r="161" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B161" s="3"/>
+      <c r="B161" s="2"/>
     </row>
     <row r="162" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B162" s="3"/>
+      <c r="B162" s="2"/>
     </row>
     <row r="163" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B163" s="3"/>
+      <c r="B163" s="2"/>
     </row>
     <row r="164" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B164" s="3"/>
+      <c r="B164" s="2"/>
     </row>
     <row r="165" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B165" s="3"/>
+      <c r="B165" s="2"/>
     </row>
     <row r="166" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B166" s="3"/>
+      <c r="B166" s="2"/>
     </row>
     <row r="167" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B167" s="3"/>
+      <c r="B167" s="2"/>
     </row>
     <row r="168" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B168" s="3"/>
+      <c r="B168" s="2"/>
     </row>
     <row r="169" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B169" s="3"/>
+      <c r="B169" s="2"/>
     </row>
     <row r="170" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B170" s="3"/>
+      <c r="B170" s="2"/>
     </row>
     <row r="171" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B171" s="3"/>
+      <c r="B171" s="2"/>
     </row>
     <row r="172" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B172" s="3"/>
+      <c r="B172" s="2"/>
     </row>
     <row r="173" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B173" s="3"/>
+      <c r="B173" s="2"/>
     </row>
     <row r="174" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B174" s="3"/>
+      <c r="B174" s="2"/>
     </row>
     <row r="175" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B175" s="3"/>
+      <c r="B175" s="2"/>
     </row>
     <row r="176" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B176" s="3"/>
+      <c r="B176" s="2"/>
     </row>
     <row r="177" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B177" s="3"/>
+      <c r="B177" s="2"/>
     </row>
     <row r="178" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B178" s="3"/>
+      <c r="B178" s="2"/>
     </row>
     <row r="179" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B179" s="3"/>
+      <c r="B179" s="2"/>
     </row>
     <row r="180" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B180" s="3"/>
+      <c r="B180" s="2"/>
     </row>
     <row r="181" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B181" s="3"/>
+      <c r="B181" s="2"/>
     </row>
     <row r="182" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B182" s="3"/>
+      <c r="B182" s="2"/>
     </row>
     <row r="183" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B183" s="3"/>
+      <c r="B183" s="2"/>
     </row>
     <row r="184" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B184" s="3"/>
+      <c r="B184" s="2"/>
     </row>
     <row r="185" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B185" s="3"/>
+      <c r="B185" s="2"/>
     </row>
     <row r="186" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B186" s="3"/>
+      <c r="B186" s="2"/>
     </row>
     <row r="187" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B187" s="3"/>
+      <c r="B187" s="2"/>
     </row>
     <row r="188" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B188" s="3"/>
+      <c r="B188" s="2"/>
     </row>
     <row r="189" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B189" s="3"/>
+      <c r="B189" s="2"/>
     </row>
     <row r="190" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B190" s="3"/>
+      <c r="B190" s="2"/>
     </row>
     <row r="191" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B191" s="3"/>
+      <c r="B191" s="2"/>
     </row>
     <row r="192" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B192" s="3"/>
+      <c r="B192" s="2"/>
     </row>
     <row r="193" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B193" s="3"/>
+      <c r="B193" s="2"/>
     </row>
     <row r="194" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B194" s="3"/>
+      <c r="B194" s="2"/>
     </row>
     <row r="195" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B195" s="3"/>
+      <c r="B195" s="2"/>
     </row>
     <row r="196" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B196" s="3"/>
+      <c r="B196" s="2"/>
     </row>
     <row r="197" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B197" s="3"/>
+      <c r="B197" s="2"/>
     </row>
     <row r="198" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B198" s="3"/>
+      <c r="B198" s="2"/>
     </row>
     <row r="199" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B199" s="3"/>
+      <c r="B199" s="2"/>
     </row>
     <row r="200" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B200" s="3"/>
+      <c r="B200" s="2"/>
     </row>
     <row r="201" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B201" s="3"/>
+      <c r="B201" s="2"/>
     </row>
     <row r="202" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B202" s="3"/>
+      <c r="B202" s="2"/>
     </row>
     <row r="203" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B203" s="3"/>
+      <c r="B203" s="2"/>
     </row>
     <row r="204" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B204" s="3"/>
+      <c r="B204" s="2"/>
     </row>
     <row r="205" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B205" s="3"/>
+      <c r="B205" s="2"/>
     </row>
     <row r="206" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B206" s="3"/>
+      <c r="B206" s="2"/>
     </row>
     <row r="207" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B207" s="3"/>
+      <c r="B207" s="2"/>
     </row>
     <row r="208" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B208" s="3"/>
+      <c r="B208" s="2"/>
     </row>
     <row r="209" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B209" s="3"/>
+      <c r="B209" s="2"/>
     </row>
     <row r="210" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B210" s="3"/>
+      <c r="B210" s="2"/>
     </row>
     <row r="211" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B211" s="3"/>
+      <c r="B211" s="2"/>
     </row>
     <row r="212" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B212" s="3"/>
+      <c r="B212" s="2"/>
     </row>
     <row r="213" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B213" s="3"/>
+      <c r="B213" s="2"/>
     </row>
     <row r="214" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B214" s="3"/>
+      <c r="B214" s="2"/>
     </row>
     <row r="215" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B215" s="3"/>
+      <c r="B215" s="2"/>
     </row>
     <row r="216" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B216" s="3"/>
+      <c r="B216" s="2"/>
     </row>
     <row r="217" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B217" s="3"/>
+      <c r="B217" s="2"/>
     </row>
     <row r="218" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B218" s="3"/>
+      <c r="B218" s="2"/>
     </row>
     <row r="219" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B219" s="3"/>
+      <c r="B219" s="2"/>
     </row>
     <row r="220" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B220" s="3"/>
+      <c r="B220" s="2"/>
     </row>
     <row r="221" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B221" s="3"/>
+      <c r="B221" s="2"/>
     </row>
     <row r="222" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B222" s="3"/>
+      <c r="B222" s="2"/>
     </row>
     <row r="223" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B223" s="3"/>
+      <c r="B223" s="2"/>
     </row>
     <row r="224" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B224" s="3"/>
+      <c r="B224" s="2"/>
     </row>
     <row r="225" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B225" s="3"/>
+      <c r="B225" s="2"/>
     </row>
     <row r="226" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B226" s="3"/>
+      <c r="B226" s="2"/>
     </row>
     <row r="227" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B227" s="3"/>
+      <c r="B227" s="2"/>
     </row>
     <row r="228" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B228" s="3"/>
+      <c r="B228" s="2"/>
     </row>
     <row r="229" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B229" s="3"/>
+      <c r="B229" s="2"/>
     </row>
     <row r="230" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B230" s="3"/>
+      <c r="B230" s="2"/>
     </row>
     <row r="231" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B231" s="3"/>
+      <c r="B231" s="2"/>
     </row>
     <row r="232" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B232" s="3"/>
+      <c r="B232" s="2"/>
     </row>
     <row r="233" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B233" s="3"/>
+      <c r="B233" s="2"/>
     </row>
     <row r="234" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B234" s="3"/>
+      <c r="B234" s="2"/>
     </row>
     <row r="235" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B235" s="3"/>
+      <c r="B235" s="2"/>
     </row>
     <row r="236" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B236" s="3"/>
+      <c r="B236" s="2"/>
     </row>
     <row r="237" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B237" s="3"/>
+      <c r="B237" s="2"/>
     </row>
     <row r="238" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B238" s="3"/>
+      <c r="B238" s="2"/>
     </row>
     <row r="239" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B239" s="3"/>
+      <c r="B239" s="2"/>
     </row>
     <row r="240" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B240" s="3"/>
+      <c r="B240" s="2"/>
     </row>
     <row r="241" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B241" s="3"/>
+      <c r="B241" s="2"/>
     </row>
     <row r="242" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B242" s="3"/>
+      <c r="B242" s="2"/>
     </row>
     <row r="243" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B243" s="3"/>
+      <c r="B243" s="2"/>
     </row>
     <row r="244" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B244" s="3"/>
+      <c r="B244" s="2"/>
     </row>
     <row r="245" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B245" s="3"/>
+      <c r="B245" s="2"/>
     </row>
     <row r="246" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B246" s="3"/>
+      <c r="B246" s="2"/>
     </row>
     <row r="247" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B247" s="3"/>
+      <c r="B247" s="2"/>
     </row>
     <row r="248" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B248" s="3"/>
+      <c r="B248" s="2"/>
     </row>
     <row r="249" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B249" s="3"/>
+      <c r="B249" s="2"/>
     </row>
     <row r="250" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B250" s="3"/>
+      <c r="B250" s="2"/>
     </row>
     <row r="251" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B251" s="3"/>
+      <c r="B251" s="2"/>
     </row>
     <row r="252" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B252" s="3"/>
+      <c r="B252" s="2"/>
     </row>
     <row r="253" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B253" s="3"/>
+      <c r="B253" s="2"/>
     </row>
     <row r="254" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B254" s="3"/>
+      <c r="B254" s="2"/>
     </row>
     <row r="255" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B255" s="3"/>
+      <c r="B255" s="2"/>
     </row>
     <row r="256" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B256" s="3"/>
+      <c r="B256" s="2"/>
     </row>
     <row r="257" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B257" s="3"/>
+      <c r="B257" s="2"/>
     </row>
     <row r="258" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B258" s="3"/>
+      <c r="B258" s="2"/>
     </row>
     <row r="259" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B259" s="3"/>
+      <c r="B259" s="2"/>
     </row>
     <row r="260" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B260" s="3"/>
+      <c r="B260" s="2"/>
     </row>
     <row r="261" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B261" s="3"/>
+      <c r="B261" s="2"/>
     </row>
     <row r="262" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B262" s="3"/>
+      <c r="B262" s="2"/>
     </row>
     <row r="263" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B263" s="3"/>
+      <c r="B263" s="2"/>
     </row>
     <row r="264" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B264" s="3"/>
+      <c r="B264" s="2"/>
     </row>
     <row r="265" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B265" s="3"/>
+      <c r="B265" s="2"/>
     </row>
     <row r="266" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B266" s="3"/>
+      <c r="B266" s="2"/>
     </row>
     <row r="267" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B267" s="3"/>
+      <c r="B267" s="2"/>
     </row>
     <row r="268" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B268" s="3"/>
+      <c r="B268" s="2"/>
     </row>
     <row r="269" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B269" s="3"/>
+      <c r="B269" s="2"/>
     </row>
     <row r="270" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B270" s="3"/>
+      <c r="B270" s="2"/>
     </row>
     <row r="271" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B271" s="3"/>
+      <c r="B271" s="2"/>
     </row>
     <row r="272" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B272" s="3"/>
+      <c r="B272" s="2"/>
     </row>
     <row r="273" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B273" s="3"/>
+      <c r="B273" s="2"/>
     </row>
     <row r="274" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B274" s="3"/>
+      <c r="B274" s="2"/>
     </row>
     <row r="275" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B275" s="3"/>
+      <c r="B275" s="2"/>
     </row>
     <row r="276" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B276" s="3"/>
+      <c r="B276" s="2"/>
     </row>
     <row r="277" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B277" s="3"/>
+      <c r="B277" s="2"/>
     </row>
     <row r="278" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B278" s="3"/>
+      <c r="B278" s="2"/>
     </row>
     <row r="279" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B279" s="3"/>
+      <c r="B279" s="2"/>
     </row>
     <row r="280" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B280" s="3"/>
+      <c r="B280" s="2"/>
     </row>
     <row r="281" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B281" s="3"/>
+      <c r="B281" s="2"/>
     </row>
     <row r="282" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B282" s="3"/>
+      <c r="B282" s="2"/>
     </row>
     <row r="283" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B283" s="3"/>
+      <c r="B283" s="2"/>
     </row>
     <row r="284" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B284" s="3"/>
+      <c r="B284" s="2"/>
     </row>
     <row r="285" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B285" s="3"/>
+      <c r="B285" s="2"/>
     </row>
     <row r="286" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B286" s="3"/>
+      <c r="B286" s="2"/>
     </row>
     <row r="287" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B287" s="3"/>
+      <c r="B287" s="2"/>
     </row>
     <row r="288" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B288" s="3"/>
+      <c r="B288" s="2"/>
     </row>
     <row r="289" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B289" s="3"/>
+      <c r="B289" s="2"/>
     </row>
     <row r="290" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B290" s="3"/>
+      <c r="B290" s="2"/>
     </row>
     <row r="291" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B291" s="3"/>
+      <c r="B291" s="2"/>
     </row>
     <row r="292" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B292" s="3"/>
+      <c r="B292" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TODO.xlsx
+++ b/TODO.xlsx
@@ -1,23 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9655A1D9-993B-49DC-81ED-05F377FF22C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86549DC5-CB65-466A-AD40-23FE72D17805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3375" yWindow="1740" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t>Prio</t>
   </si>
@@ -79,9 +90,6 @@
     <t>shap plot: show_intercept, show_prediction parameter</t>
   </si>
   <si>
-    <t>shap2pd aggregation multiclass</t>
-  </si>
-  <si>
     <t>own spline example code</t>
   </si>
   <si>
@@ -95,6 +103,18 @@
   </si>
   <si>
     <t>done</t>
+  </si>
+  <si>
+    <t>later</t>
+  </si>
+  <si>
+    <t>agg_shap_value: remove len_nume paramter and make it flexible</t>
+  </si>
+  <si>
+    <t>Shap PD: still does not work with numeric features due to bin</t>
+  </si>
+  <si>
+    <t>shap2pd aggregation MULTICLASS</t>
   </si>
 </sst>
 </file>
@@ -110,7 +130,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -129,6 +149,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -142,11 +168,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -487,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C292"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,7 +541,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -521,7 +549,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -529,7 +557,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -537,7 +565,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -545,7 +573,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -553,7 +581,7 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -561,7 +589,7 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -569,7 +597,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -577,7 +605,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -585,7 +613,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -593,7 +621,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -601,17 +629,20 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C15"/>
     </row>
@@ -620,15 +651,15 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -636,7 +667,7 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -644,7 +675,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -652,25 +683,33 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21"/>
+      <c r="B21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="22" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="B22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22"/>
+    </row>
+    <row r="23" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
     </row>

--- a/TODO.xlsx
+++ b/TODO.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86549DC5-CB65-466A-AD40-23FE72D17805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38601D5A-9933-4A04-A9C6-F09A3EBDF40D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
   <si>
     <t>Prio</t>
   </si>
@@ -99,22 +99,22 @@
     <t>not important</t>
   </si>
   <si>
-    <t>ceteris-paribus plots</t>
-  </si>
-  <si>
     <t>done</t>
   </si>
   <si>
-    <t>later</t>
-  </si>
-  <si>
-    <t>agg_shap_value: remove len_nume paramter and make it flexible</t>
-  </si>
-  <si>
-    <t>Shap PD: still does not work with numeric features due to bin</t>
-  </si>
-  <si>
     <t>shap2pd aggregation MULTICLASS</t>
+  </si>
+  <si>
+    <t>Shap PD numeric feature reference: still does not work with numeric features due to bin</t>
+  </si>
+  <si>
+    <t>skipped</t>
+  </si>
+  <si>
+    <t>SHAP: agg_shap_value: remove len_nume paramter and make it flexible</t>
+  </si>
+  <si>
+    <t>Individual dependencies / Counterfactuals  / Ceteris Paribus plots</t>
   </si>
 </sst>
 </file>
@@ -130,7 +130,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,12 +149,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -170,11 +164,21 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -515,1004 +519,1013 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B26:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="58.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="3"/>
+    <col min="2" max="2" width="58.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
+      <c r="C3" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
+      <c r="C4" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
+      <c r="C5" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
+      <c r="C6" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
+      <c r="C7" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
+      <c r="C8" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
+      <c r="C9" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
+      <c r="C10" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
+      <c r="C11" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
+      <c r="C12" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
+      <c r="C13" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C14" t="s">
+    </row>
+    <row r="15" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B23" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15"/>
-    </row>
-    <row r="16" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22"/>
-    </row>
-    <row r="23" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="3" t="s">
-        <v>27</v>
+      <c r="C24" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
+      <c r="B25" s="4"/>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="2"/>
+      <c r="B26" s="4"/>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
+      <c r="B27" s="4"/>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
+      <c r="B28" s="4"/>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
+      <c r="B29" s="4"/>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
+      <c r="B30" s="4"/>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="2"/>
+      <c r="B31" s="4"/>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="2"/>
+      <c r="B32" s="4"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="2"/>
+      <c r="B33" s="4"/>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="2"/>
+      <c r="B34" s="4"/>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="2"/>
+      <c r="B35" s="4"/>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="2"/>
+      <c r="B36" s="4"/>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="2"/>
+      <c r="B37" s="4"/>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="2"/>
+      <c r="B38" s="4"/>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="2"/>
+      <c r="B39" s="4"/>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="2"/>
+      <c r="B40" s="4"/>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" s="2"/>
+      <c r="B41" s="4"/>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" s="2"/>
+      <c r="B42" s="4"/>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" s="2"/>
+      <c r="B43" s="4"/>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" s="2"/>
+      <c r="B44" s="4"/>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" s="2"/>
+      <c r="B45" s="4"/>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46" s="2"/>
+      <c r="B46" s="4"/>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47" s="2"/>
+      <c r="B47" s="4"/>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B48" s="2"/>
+      <c r="B48" s="4"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="2"/>
+      <c r="B49" s="4"/>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="2"/>
+      <c r="B50" s="4"/>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="2"/>
+      <c r="B51" s="4"/>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" s="2"/>
+      <c r="B52" s="4"/>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" s="2"/>
+      <c r="B53" s="4"/>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" s="2"/>
+      <c r="B54" s="4"/>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" s="2"/>
+      <c r="B55" s="4"/>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" s="2"/>
+      <c r="B56" s="4"/>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57" s="2"/>
+      <c r="B57" s="4"/>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58" s="2"/>
+      <c r="B58" s="4"/>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59" s="2"/>
+      <c r="B59" s="4"/>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60" s="2"/>
+      <c r="B60" s="4"/>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61" s="2"/>
+      <c r="B61" s="4"/>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62" s="2"/>
+      <c r="B62" s="4"/>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B63" s="2"/>
+      <c r="B63" s="4"/>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B64" s="2"/>
+      <c r="B64" s="4"/>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" s="2"/>
+      <c r="B65" s="4"/>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" s="2"/>
+      <c r="B66" s="4"/>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67" s="2"/>
+      <c r="B67" s="4"/>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68" s="2"/>
+      <c r="B68" s="4"/>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69" s="2"/>
+      <c r="B69" s="4"/>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B70" s="2"/>
+      <c r="B70" s="4"/>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B71" s="2"/>
+      <c r="B71" s="4"/>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B72" s="2"/>
+      <c r="B72" s="4"/>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B73" s="2"/>
+      <c r="B73" s="4"/>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B74" s="2"/>
+      <c r="B74" s="4"/>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B75" s="2"/>
+      <c r="B75" s="4"/>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B76" s="2"/>
+      <c r="B76" s="4"/>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B77" s="2"/>
+      <c r="B77" s="4"/>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B78" s="2"/>
+      <c r="B78" s="4"/>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B79" s="2"/>
+      <c r="B79" s="4"/>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B80" s="2"/>
+      <c r="B80" s="4"/>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81" s="2"/>
+      <c r="B81" s="4"/>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B82" s="2"/>
+      <c r="B82" s="4"/>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" s="2"/>
+      <c r="B83" s="4"/>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" s="2"/>
+      <c r="B84" s="4"/>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" s="2"/>
+      <c r="B85" s="4"/>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B86" s="2"/>
+      <c r="B86" s="4"/>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B87" s="2"/>
+      <c r="B87" s="4"/>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B88" s="2"/>
+      <c r="B88" s="4"/>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B89" s="2"/>
+      <c r="B89" s="4"/>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B90" s="2"/>
+      <c r="B90" s="4"/>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B91" s="2"/>
+      <c r="B91" s="4"/>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B92" s="2"/>
+      <c r="B92" s="4"/>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B93" s="2"/>
+      <c r="B93" s="4"/>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B94" s="2"/>
+      <c r="B94" s="4"/>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B95" s="2"/>
+      <c r="B95" s="4"/>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B96" s="2"/>
+      <c r="B96" s="4"/>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="2"/>
+      <c r="B97" s="4"/>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="2"/>
+      <c r="B98" s="4"/>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="2"/>
+      <c r="B99" s="4"/>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="2"/>
+      <c r="B100" s="4"/>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="2"/>
+      <c r="B101" s="4"/>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="2"/>
+      <c r="B102" s="4"/>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="2"/>
+      <c r="B103" s="4"/>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="2"/>
+      <c r="B104" s="4"/>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="2"/>
+      <c r="B105" s="4"/>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="2"/>
+      <c r="B106" s="4"/>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="2"/>
+      <c r="B107" s="4"/>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B108" s="2"/>
+      <c r="B108" s="4"/>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B109" s="2"/>
+      <c r="B109" s="4"/>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B110" s="2"/>
+      <c r="B110" s="4"/>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B111" s="2"/>
+      <c r="B111" s="4"/>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B112" s="2"/>
+      <c r="B112" s="4"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B113" s="2"/>
+      <c r="B113" s="4"/>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B114" s="2"/>
+      <c r="B114" s="4"/>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B115" s="2"/>
+      <c r="B115" s="4"/>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B116" s="2"/>
+      <c r="B116" s="4"/>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B117" s="2"/>
+      <c r="B117" s="4"/>
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B118" s="2"/>
+      <c r="B118" s="4"/>
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B119" s="2"/>
+      <c r="B119" s="4"/>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B120" s="2"/>
+      <c r="B120" s="4"/>
     </row>
     <row r="121" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B121" s="2"/>
+      <c r="B121" s="4"/>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B122" s="2"/>
+      <c r="B122" s="4"/>
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B123" s="2"/>
+      <c r="B123" s="4"/>
     </row>
     <row r="124" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B124" s="2"/>
+      <c r="B124" s="4"/>
     </row>
     <row r="125" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B125" s="2"/>
+      <c r="B125" s="4"/>
     </row>
     <row r="126" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B126" s="2"/>
+      <c r="B126" s="4"/>
     </row>
     <row r="127" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B127" s="2"/>
+      <c r="B127" s="4"/>
     </row>
     <row r="128" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B128" s="2"/>
+      <c r="B128" s="4"/>
     </row>
     <row r="129" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B129" s="2"/>
+      <c r="B129" s="4"/>
     </row>
     <row r="130" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B130" s="2"/>
+      <c r="B130" s="4"/>
     </row>
     <row r="131" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B131" s="2"/>
+      <c r="B131" s="4"/>
     </row>
     <row r="132" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B132" s="2"/>
+      <c r="B132" s="4"/>
     </row>
     <row r="133" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B133" s="2"/>
+      <c r="B133" s="4"/>
     </row>
     <row r="134" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B134" s="2"/>
+      <c r="B134" s="4"/>
     </row>
     <row r="135" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B135" s="2"/>
+      <c r="B135" s="4"/>
     </row>
     <row r="136" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B136" s="2"/>
+      <c r="B136" s="4"/>
     </row>
     <row r="137" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B137" s="2"/>
+      <c r="B137" s="4"/>
     </row>
     <row r="138" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B138" s="2"/>
+      <c r="B138" s="4"/>
     </row>
     <row r="139" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B139" s="2"/>
+      <c r="B139" s="4"/>
     </row>
     <row r="140" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B140" s="2"/>
+      <c r="B140" s="4"/>
     </row>
     <row r="141" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B141" s="2"/>
+      <c r="B141" s="4"/>
     </row>
     <row r="142" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B142" s="2"/>
+      <c r="B142" s="4"/>
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B143" s="2"/>
+      <c r="B143" s="4"/>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B144" s="2"/>
+      <c r="B144" s="4"/>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B145" s="2"/>
+      <c r="B145" s="4"/>
     </row>
     <row r="146" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B146" s="2"/>
+      <c r="B146" s="4"/>
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B147" s="2"/>
+      <c r="B147" s="4"/>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B148" s="2"/>
+      <c r="B148" s="4"/>
     </row>
     <row r="149" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B149" s="2"/>
+      <c r="B149" s="4"/>
     </row>
     <row r="150" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B150" s="2"/>
+      <c r="B150" s="4"/>
     </row>
     <row r="151" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B151" s="2"/>
+      <c r="B151" s="4"/>
     </row>
     <row r="152" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B152" s="2"/>
+      <c r="B152" s="4"/>
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B153" s="2"/>
+      <c r="B153" s="4"/>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B154" s="2"/>
+      <c r="B154" s="4"/>
     </row>
     <row r="155" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B155" s="2"/>
+      <c r="B155" s="4"/>
     </row>
     <row r="156" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B156" s="2"/>
+      <c r="B156" s="4"/>
     </row>
     <row r="157" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B157" s="2"/>
+      <c r="B157" s="4"/>
     </row>
     <row r="158" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B158" s="2"/>
+      <c r="B158" s="4"/>
     </row>
     <row r="159" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B159" s="2"/>
+      <c r="B159" s="4"/>
     </row>
     <row r="160" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B160" s="2"/>
+      <c r="B160" s="4"/>
     </row>
     <row r="161" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B161" s="2"/>
+      <c r="B161" s="4"/>
     </row>
     <row r="162" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B162" s="2"/>
+      <c r="B162" s="4"/>
     </row>
     <row r="163" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B163" s="2"/>
+      <c r="B163" s="4"/>
     </row>
     <row r="164" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B164" s="2"/>
+      <c r="B164" s="4"/>
     </row>
     <row r="165" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B165" s="2"/>
+      <c r="B165" s="4"/>
     </row>
     <row r="166" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B166" s="2"/>
+      <c r="B166" s="4"/>
     </row>
     <row r="167" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B167" s="2"/>
+      <c r="B167" s="4"/>
     </row>
     <row r="168" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B168" s="2"/>
+      <c r="B168" s="4"/>
     </row>
     <row r="169" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B169" s="2"/>
+      <c r="B169" s="4"/>
     </row>
     <row r="170" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B170" s="2"/>
+      <c r="B170" s="4"/>
     </row>
     <row r="171" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B171" s="2"/>
+      <c r="B171" s="4"/>
     </row>
     <row r="172" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B172" s="2"/>
+      <c r="B172" s="4"/>
     </row>
     <row r="173" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B173" s="2"/>
+      <c r="B173" s="4"/>
     </row>
     <row r="174" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B174" s="2"/>
+      <c r="B174" s="4"/>
     </row>
     <row r="175" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B175" s="2"/>
+      <c r="B175" s="4"/>
     </row>
     <row r="176" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B176" s="2"/>
+      <c r="B176" s="4"/>
     </row>
     <row r="177" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B177" s="2"/>
+      <c r="B177" s="4"/>
     </row>
     <row r="178" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B178" s="2"/>
+      <c r="B178" s="4"/>
     </row>
     <row r="179" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B179" s="2"/>
+      <c r="B179" s="4"/>
     </row>
     <row r="180" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B180" s="2"/>
+      <c r="B180" s="4"/>
     </row>
     <row r="181" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B181" s="2"/>
+      <c r="B181" s="4"/>
     </row>
     <row r="182" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B182" s="2"/>
+      <c r="B182" s="4"/>
     </row>
     <row r="183" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B183" s="2"/>
+      <c r="B183" s="4"/>
     </row>
     <row r="184" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B184" s="2"/>
+      <c r="B184" s="4"/>
     </row>
     <row r="185" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B185" s="2"/>
+      <c r="B185" s="4"/>
     </row>
     <row r="186" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B186" s="2"/>
+      <c r="B186" s="4"/>
     </row>
     <row r="187" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B187" s="2"/>
+      <c r="B187" s="4"/>
     </row>
     <row r="188" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B188" s="2"/>
+      <c r="B188" s="4"/>
     </row>
     <row r="189" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B189" s="2"/>
+      <c r="B189" s="4"/>
     </row>
     <row r="190" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B190" s="2"/>
+      <c r="B190" s="4"/>
     </row>
     <row r="191" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B191" s="2"/>
+      <c r="B191" s="4"/>
     </row>
     <row r="192" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B192" s="2"/>
+      <c r="B192" s="4"/>
     </row>
     <row r="193" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B193" s="2"/>
+      <c r="B193" s="4"/>
     </row>
     <row r="194" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B194" s="2"/>
+      <c r="B194" s="4"/>
     </row>
     <row r="195" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B195" s="2"/>
+      <c r="B195" s="4"/>
     </row>
     <row r="196" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B196" s="2"/>
+      <c r="B196" s="4"/>
     </row>
     <row r="197" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B197" s="2"/>
+      <c r="B197" s="4"/>
     </row>
     <row r="198" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B198" s="2"/>
+      <c r="B198" s="4"/>
     </row>
     <row r="199" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B199" s="2"/>
+      <c r="B199" s="4"/>
     </row>
     <row r="200" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B200" s="2"/>
+      <c r="B200" s="4"/>
     </row>
     <row r="201" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B201" s="2"/>
+      <c r="B201" s="4"/>
     </row>
     <row r="202" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B202" s="2"/>
+      <c r="B202" s="4"/>
     </row>
     <row r="203" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B203" s="2"/>
+      <c r="B203" s="4"/>
     </row>
     <row r="204" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B204" s="2"/>
+      <c r="B204" s="4"/>
     </row>
     <row r="205" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B205" s="2"/>
+      <c r="B205" s="4"/>
     </row>
     <row r="206" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B206" s="2"/>
+      <c r="B206" s="4"/>
     </row>
     <row r="207" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B207" s="2"/>
+      <c r="B207" s="4"/>
     </row>
     <row r="208" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B208" s="2"/>
+      <c r="B208" s="4"/>
     </row>
     <row r="209" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B209" s="2"/>
+      <c r="B209" s="4"/>
     </row>
     <row r="210" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B210" s="2"/>
+      <c r="B210" s="4"/>
     </row>
     <row r="211" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B211" s="2"/>
+      <c r="B211" s="4"/>
     </row>
     <row r="212" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B212" s="2"/>
+      <c r="B212" s="4"/>
     </row>
     <row r="213" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B213" s="2"/>
+      <c r="B213" s="4"/>
     </row>
     <row r="214" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B214" s="2"/>
+      <c r="B214" s="4"/>
     </row>
     <row r="215" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B215" s="2"/>
+      <c r="B215" s="4"/>
     </row>
     <row r="216" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B216" s="2"/>
+      <c r="B216" s="4"/>
     </row>
     <row r="217" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B217" s="2"/>
+      <c r="B217" s="4"/>
     </row>
     <row r="218" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B218" s="2"/>
+      <c r="B218" s="4"/>
     </row>
     <row r="219" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B219" s="2"/>
+      <c r="B219" s="4"/>
     </row>
     <row r="220" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B220" s="2"/>
+      <c r="B220" s="4"/>
     </row>
     <row r="221" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B221" s="2"/>
+      <c r="B221" s="4"/>
     </row>
     <row r="222" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B222" s="2"/>
+      <c r="B222" s="4"/>
     </row>
     <row r="223" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B223" s="2"/>
+      <c r="B223" s="4"/>
     </row>
     <row r="224" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B224" s="2"/>
+      <c r="B224" s="4"/>
     </row>
     <row r="225" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B225" s="2"/>
+      <c r="B225" s="4"/>
     </row>
     <row r="226" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B226" s="2"/>
+      <c r="B226" s="4"/>
     </row>
     <row r="227" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B227" s="2"/>
+      <c r="B227" s="4"/>
     </row>
     <row r="228" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B228" s="2"/>
+      <c r="B228" s="4"/>
     </row>
     <row r="229" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B229" s="2"/>
+      <c r="B229" s="4"/>
     </row>
     <row r="230" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B230" s="2"/>
+      <c r="B230" s="4"/>
     </row>
     <row r="231" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B231" s="2"/>
+      <c r="B231" s="4"/>
     </row>
     <row r="232" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B232" s="2"/>
+      <c r="B232" s="4"/>
     </row>
     <row r="233" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B233" s="2"/>
+      <c r="B233" s="4"/>
     </row>
     <row r="234" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B234" s="2"/>
+      <c r="B234" s="4"/>
     </row>
     <row r="235" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B235" s="2"/>
+      <c r="B235" s="4"/>
     </row>
     <row r="236" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B236" s="2"/>
+      <c r="B236" s="4"/>
     </row>
     <row r="237" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B237" s="2"/>
+      <c r="B237" s="4"/>
     </row>
     <row r="238" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B238" s="2"/>
+      <c r="B238" s="4"/>
     </row>
     <row r="239" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B239" s="2"/>
+      <c r="B239" s="4"/>
     </row>
     <row r="240" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B240" s="2"/>
+      <c r="B240" s="4"/>
     </row>
     <row r="241" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B241" s="2"/>
+      <c r="B241" s="4"/>
     </row>
     <row r="242" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B242" s="2"/>
+      <c r="B242" s="4"/>
     </row>
     <row r="243" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B243" s="2"/>
+      <c r="B243" s="4"/>
     </row>
     <row r="244" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B244" s="2"/>
+      <c r="B244" s="4"/>
     </row>
     <row r="245" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B245" s="2"/>
+      <c r="B245" s="4"/>
     </row>
     <row r="246" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B246" s="2"/>
+      <c r="B246" s="4"/>
     </row>
     <row r="247" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B247" s="2"/>
+      <c r="B247" s="4"/>
     </row>
     <row r="248" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B248" s="2"/>
+      <c r="B248" s="4"/>
     </row>
     <row r="249" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B249" s="2"/>
+      <c r="B249" s="4"/>
     </row>
     <row r="250" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B250" s="2"/>
+      <c r="B250" s="4"/>
     </row>
     <row r="251" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B251" s="2"/>
+      <c r="B251" s="4"/>
     </row>
     <row r="252" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B252" s="2"/>
+      <c r="B252" s="4"/>
     </row>
     <row r="253" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B253" s="2"/>
+      <c r="B253" s="4"/>
     </row>
     <row r="254" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B254" s="2"/>
+      <c r="B254" s="4"/>
     </row>
     <row r="255" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B255" s="2"/>
+      <c r="B255" s="4"/>
     </row>
     <row r="256" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B256" s="2"/>
+      <c r="B256" s="4"/>
     </row>
     <row r="257" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B257" s="2"/>
+      <c r="B257" s="4"/>
     </row>
     <row r="258" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B258" s="2"/>
+      <c r="B258" s="4"/>
     </row>
     <row r="259" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B259" s="2"/>
+      <c r="B259" s="4"/>
     </row>
     <row r="260" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B260" s="2"/>
+      <c r="B260" s="4"/>
     </row>
     <row r="261" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B261" s="2"/>
+      <c r="B261" s="4"/>
     </row>
     <row r="262" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B262" s="2"/>
+      <c r="B262" s="4"/>
     </row>
     <row r="263" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B263" s="2"/>
+      <c r="B263" s="4"/>
     </row>
     <row r="264" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B264" s="2"/>
+      <c r="B264" s="4"/>
     </row>
     <row r="265" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B265" s="2"/>
+      <c r="B265" s="4"/>
     </row>
     <row r="266" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B266" s="2"/>
+      <c r="B266" s="4"/>
     </row>
     <row r="267" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B267" s="2"/>
+      <c r="B267" s="4"/>
     </row>
     <row r="268" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B268" s="2"/>
+      <c r="B268" s="4"/>
     </row>
     <row r="269" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B269" s="2"/>
+      <c r="B269" s="4"/>
     </row>
     <row r="270" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B270" s="2"/>
+      <c r="B270" s="4"/>
     </row>
     <row r="271" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B271" s="2"/>
+      <c r="B271" s="4"/>
     </row>
     <row r="272" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B272" s="2"/>
+      <c r="B272" s="4"/>
     </row>
     <row r="273" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B273" s="2"/>
+      <c r="B273" s="4"/>
     </row>
     <row r="274" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B274" s="2"/>
+      <c r="B274" s="4"/>
     </row>
     <row r="275" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B275" s="2"/>
+      <c r="B275" s="4"/>
     </row>
     <row r="276" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B276" s="2"/>
+      <c r="B276" s="4"/>
     </row>
     <row r="277" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B277" s="2"/>
+      <c r="B277" s="4"/>
     </row>
     <row r="278" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B278" s="2"/>
+      <c r="B278" s="4"/>
     </row>
     <row r="279" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B279" s="2"/>
+      <c r="B279" s="4"/>
     </row>
     <row r="280" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B280" s="2"/>
+      <c r="B280" s="4"/>
     </row>
     <row r="281" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B281" s="2"/>
+      <c r="B281" s="4"/>
     </row>
     <row r="282" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B282" s="2"/>
+      <c r="B282" s="4"/>
     </row>
     <row r="283" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B283" s="2"/>
+      <c r="B283" s="4"/>
     </row>
     <row r="284" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B284" s="2"/>
+      <c r="B284" s="4"/>
     </row>
     <row r="285" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B285" s="2"/>
+      <c r="B285" s="4"/>
     </row>
     <row r="286" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B286" s="2"/>
+      <c r="B286" s="4"/>
     </row>
     <row r="287" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B287" s="2"/>
+      <c r="B287" s="4"/>
     </row>
     <row r="288" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B288" s="2"/>
+      <c r="B288" s="4"/>
     </row>
     <row r="289" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B289" s="2"/>
+      <c r="B289" s="4"/>
     </row>
     <row r="290" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B290" s="2"/>
+      <c r="B290" s="4"/>
     </row>
     <row r="291" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B291" s="2"/>
+      <c r="B291" s="4"/>
     </row>
     <row r="292" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B292" s="2"/>
+      <c r="B292" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
